--- a/成績管理システム_ユースケースから画面遷移書.xlsx
+++ b/成績管理システム_ユースケースから画面遷移書.xlsx
@@ -1,35 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_fri34ys\seiseki_manage_sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C23F96-A352-415B-9558-F1443D487C5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{85C23F96-A352-415B-9558-F1443D487C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3030DF7-7CD7-40C8-A03F-89112A0705E5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31665" windowHeight="16005" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31665" windowHeight="16005" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ユースケース図" sheetId="1" r:id="rId1"/>
-    <sheet name="テーブル定義書" sheetId="2" r:id="rId2"/>
-    <sheet name="E-R図" sheetId="3" r:id="rId3"/>
-    <sheet name="画面遷移図" sheetId="4" r:id="rId4"/>
-    <sheet name="開発環境" sheetId="5" r:id="rId5"/>
+    <sheet name="E-R図" sheetId="3" r:id="rId2"/>
+    <sheet name="画面遷移図" sheetId="4" r:id="rId3"/>
+    <sheet name="開発環境" sheetId="5" r:id="rId4"/>
+    <sheet name="テーブル定義書" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="74">
   <si>
     <t>各教師</t>
   </si>
@@ -43,18 +54,19 @@
     <t>管理者</t>
   </si>
   <si>
-    <t>テーブル定義書ファイル 共有リンクURL</t>
+    <t>scoresテーブル、class_id追加未</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>生徒</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>生徒</t>
     <rPh sb="0" eb="2">
       <t>セイト</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>期間選択</t>
@@ -67,7 +79,7 @@
     <rPh sb="0" eb="2">
       <t>キョウシ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -102,7 +114,7 @@
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>全体管理者</t>
@@ -112,7 +124,7 @@
     <rPh sb="0" eb="2">
       <t>セイト</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>教師検索</t>
@@ -122,36 +134,213 @@
     <rPh sb="2" eb="4">
       <t>ケンサク</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>言語: Java</t>
     <rPh sb="0" eb="2">
       <t>ゲンゴ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>環境: Eclipse</t>
     <rPh sb="0" eb="2">
       <t>カンキョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>DB: MySQL</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>scoresテーブル、class_id追加未</t>
-    <phoneticPr fontId="6"/>
+    <t>studentsテーブル</t>
+  </si>
+  <si>
+    <t>COLUMN_NAME</t>
+  </si>
+  <si>
+    <t>ORDINAL_POSITION</t>
+  </si>
+  <si>
+    <t>COLUMN_DEFAULT</t>
+  </si>
+  <si>
+    <t>IS_NULLABLE</t>
+  </si>
+  <si>
+    <t>DATA_TYPE</t>
+  </si>
+  <si>
+    <t>KEY_ATTRIBUTE</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>int auto_increment</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>kana</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>varchar(70)</t>
+  </si>
+  <si>
+    <t>class_id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>FK classes.id</t>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>current_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>classesテーブル</t>
+  </si>
+  <si>
+    <t>start_year</t>
+  </si>
+  <si>
+    <t>major_id</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK majors.id</t>
+  </si>
+  <si>
+    <t>class_subjectsテーブル</t>
+  </si>
+  <si>
+    <t>int auto_increment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject_id</t>
+  </si>
+  <si>
+    <t>FK subjects.id</t>
+  </si>
+  <si>
+    <t>majorsテーブル</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subjectsテーブル</t>
+  </si>
+  <si>
+    <t>manager_id</t>
+  </si>
+  <si>
+    <t>FK managers.id</t>
+  </si>
+  <si>
+    <t>teachersテーブル</t>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(70)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>teacher_subjectsテーブル</t>
+  </si>
+  <si>
+    <t>teacher_id</t>
+  </si>
+  <si>
+    <t>FK teachers.id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,13 +357,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -182,14 +364,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -270,7 +444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -278,45 +452,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -10265,21 +10508,21 @@
       <selection activeCell="BB113" sqref="BB113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:10" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="6" spans="4:10" ht="25.5">
       <c r="J6" s="7"/>
     </row>
-    <row r="16" spans="4:10" ht="33" x14ac:dyDescent="0.65">
+    <row r="16" spans="4:10" ht="33">
       <c r="D16" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:13" ht="33" x14ac:dyDescent="0.65">
+    <row r="43" spans="4:13" ht="33">
       <c r="D43" s="6" t="s">
         <v>1</v>
       </c>
@@ -10287,662 +10530,137 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="4:13" ht="33" x14ac:dyDescent="0.65">
+    <row r="47" spans="4:13" ht="33">
       <c r="D47" s="1"/>
     </row>
-    <row r="57" spans="4:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="57" spans="4:4" ht="33">
       <c r="D57" s="6" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A587C7C4-AF37-4D8C-B0C6-57361D8E31A4}">
-  <dimension ref="C4:U67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA13E3A-8C7A-44F7-B000-4D19323B9E80}">
+  <dimension ref="M59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="L42" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="Y55" sqref="Y55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="2" width="9" style="11"/>
-    <col min="3" max="3" width="36" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="25.875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="36" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9" style="11"/>
-    <col min="13" max="13" width="36" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.625" style="11" customWidth="1"/>
-    <col min="15" max="15" width="25.25" style="11" customWidth="1"/>
-    <col min="16" max="16" width="21.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39" style="11" customWidth="1"/>
-    <col min="18" max="18" width="36" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="11"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C4" s="10"/>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="14"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14"/>
-      <c r="T7" s="14"/>
-    </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="20" t="s">
+    <row r="59" spans="13:13">
+      <c r="M59" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="14"/>
-      <c r="T8" s="14"/>
-    </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="14"/>
-      <c r="T9" s="14"/>
-    </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="14"/>
-      <c r="T10" s="14"/>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="14"/>
-      <c r="T11" s="14"/>
-    </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="14"/>
-      <c r="T12" s="14"/>
-    </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="14"/>
-      <c r="T13" s="14"/>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C19" s="16"/>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="14"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="14"/>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-    </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C33" s="10"/>
-      <c r="M33" s="10"/>
-    </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-    </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-    </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-    </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-    </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-    </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-    </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-    </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="18"/>
-    </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C47" s="10"/>
-      <c r="M47" s="10"/>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="14"/>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-    </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-    </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-    </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
-  <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{C1F2C7E2-323C-4D93-A0E8-3C18429DC27A}"/>
-  </hyperlinks>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA13E3A-8C7A-44F7-B000-4D19323B9E80}">
-  <dimension ref="M59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3A7CDF-40EE-4E2B-942F-AAE76AE5F7BE}">
+  <dimension ref="B2:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L51" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD33" sqref="AD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="59" spans="13:13" x14ac:dyDescent="0.4">
-      <c r="M59" t="s">
-        <v>19</v>
-      </c>
+    <row r="2" spans="2:14" ht="76.5">
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="J3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="76.5">
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="6:21">
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="6:21">
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="6:21">
+      <c r="J19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="6:21">
+      <c r="U22" s="5"/>
+    </row>
+    <row r="33" spans="2:19" ht="76.5">
+      <c r="B33" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="F37" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="M39" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19">
+      <c r="O41" s="5"/>
+      <c r="S41" s="5"/>
+    </row>
+    <row r="44" spans="2:19">
+      <c r="M44" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19">
+      <c r="R47" s="5"/>
+    </row>
+    <row r="48" spans="2:19">
+      <c r="O48" s="4"/>
+      <c r="S48" s="2"/>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10950,105 +10668,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3A7CDF-40EE-4E2B-942F-AAE76AE5F7BE}">
-  <dimension ref="B2:U54"/>
-  <sheetViews>
-    <sheetView topLeftCell="B46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD33" sqref="AD33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" ht="76.5" x14ac:dyDescent="1.45">
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="J3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="76.5" x14ac:dyDescent="1.45">
-      <c r="B11" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="6:21" x14ac:dyDescent="0.4">
-      <c r="F17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="6:21" x14ac:dyDescent="0.4">
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="6:21" x14ac:dyDescent="0.4">
-      <c r="J19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="6:21" x14ac:dyDescent="0.4">
-      <c r="U22" s="5"/>
-    </row>
-    <row r="33" spans="2:19" ht="76.5" x14ac:dyDescent="1.45">
-      <c r="B33" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="F37" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="M39" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="O41" s="5"/>
-      <c r="S41" s="5"/>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="M44" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="R47" s="5"/>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="O48" s="4"/>
-      <c r="S48" s="2"/>
-    </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.4">
-      <c r="J54" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFC89EF-2680-456E-BF78-77507EEACBB0}">
   <dimension ref="B2:B4"/>
   <sheetViews>
@@ -11056,26 +10675,1112 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EC819A-7AE1-4C75-BFBB-64D451D6BF2E}">
+  <dimension ref="B2:G103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="18.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="11" customWidth="1"/>
+    <col min="7" max="7" width="26.625" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="14">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="13">
+        <v>7</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="14">
+        <v>8</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="14">
+        <v>8</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="13">
+        <v>9</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="14">
+        <v>3</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="14">
+        <v>4</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="14">
+        <v>8</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="15">
+        <v>9</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="19">
+        <v>1</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="19">
+        <v>2</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="14">
+        <v>8</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="14">
+        <v>8</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="15">
+        <v>9</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="19">
+        <v>1</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="19">
+        <v>2</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="14">
+        <v>3</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="14">
+        <v>6</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="15">
+        <v>7</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="18"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="19">
+        <v>1</v>
+      </c>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="19">
+        <v>2</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G72" s="19"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="14">
+        <v>3</v>
+      </c>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="14">
+        <v>7</v>
+      </c>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="14">
+        <v>7</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="15">
+        <v>8</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="19">
+        <v>1</v>
+      </c>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" s="19">
+        <v>2</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" s="19"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="14">
+        <v>3</v>
+      </c>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G86" s="14"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="15">
+        <v>4</v>
+      </c>
+      <c r="D87" s="16"/>
+      <c r="E87" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="19">
+        <v>5</v>
+      </c>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G88" s="19"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="14">
+        <v>6</v>
+      </c>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="14">
+        <v>6</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G90" s="14"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="15">
+        <v>7</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G91" s="13"/>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="19">
+        <v>1</v>
+      </c>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98" s="19">
+        <v>2</v>
+      </c>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" s="14">
+        <v>3</v>
+      </c>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" s="15">
+        <v>4</v>
+      </c>
+      <c r="D100" s="16"/>
+      <c r="E100" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" s="14">
+        <v>6</v>
+      </c>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" s="14">
+        <v>6</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G102" s="14"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="15">
+        <v>7</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G103" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/成績管理システム_ユースケースから画面遷移書.xlsx
+++ b/成績管理システム_ユースケースから画面遷移書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_fri34ys\seiseki_manage_sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{85C23F96-A352-415B-9558-F1443D487C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3030DF7-7CD7-40C8-A03F-89112A0705E5}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{85C23F96-A352-415B-9558-F1443D487C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{692095F7-64C8-466D-8DEF-0D39A642F5C0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31665" windowHeight="16005" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31665" windowHeight="16005" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ユースケース図" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="83">
   <si>
     <t>各教師</t>
   </si>
@@ -231,6 +231,12 @@
     <t>FK classes.id</t>
   </si>
   <si>
+    <t>manager_id</t>
+  </si>
+  <si>
+    <t>FK managers.id</t>
+  </si>
+  <si>
     <t>created_at</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -302,12 +308,6 @@
     <t>subjectsテーブル</t>
   </si>
   <si>
-    <t>manager_id</t>
-  </si>
-  <si>
-    <t>FK managers.id</t>
-  </si>
-  <si>
     <t>teachersテーブル</t>
   </si>
   <si>
@@ -334,6 +334,33 @@
   </si>
   <si>
     <t>FK teachers.id</t>
+  </si>
+  <si>
+    <t>period_id</t>
+  </si>
+  <si>
+    <t>FK periods.id</t>
+  </si>
+  <si>
+    <t>scoresテーブル</t>
+  </si>
+  <si>
+    <t>student_id</t>
+  </si>
+  <si>
+    <t>FK students.id</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>managersテーブル</t>
+  </si>
+  <si>
+    <t>periodsテーブル</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -10701,10 +10728,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EC819A-7AE1-4C75-BFBB-64D451D6BF2E}">
-  <dimension ref="B2:G103"/>
+  <dimension ref="B2:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -10880,168 +10907,62 @@
       <c r="C12" s="14">
         <v>8</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="14">
+        <v>8</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="13">
-        <v>9</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="13"/>
+      <c r="E13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
+      <c r="B14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="13">
+        <v>9</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="13">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="14">
-        <v>3</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="14" t="s">
+    <row r="25" spans="2:7">
+      <c r="B25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="14">
-        <v>4</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="14">
-        <v>8</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="15">
-        <v>9</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="13"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26"/>
@@ -11052,26 +10973,130 @@
       <c r="G26"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="3"/>
+      <c r="B27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="3"/>
+      <c r="B28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="14">
+        <v>3</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="B30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="14">
+        <v>4</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="14">
+        <v>8</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="14">
+        <v>8</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
+      <c r="B33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="15">
+        <v>9</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34"/>
@@ -11110,7 +11135,7 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="2:7">
@@ -11145,10 +11170,10 @@
         <v>37</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="2:7">
@@ -11163,7 +11188,7 @@
         <v>37</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G50" s="19" t="s">
         <v>43</v>
@@ -11171,7 +11196,7 @@
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C51" s="14">
         <v>8</v>
@@ -11184,7 +11209,7 @@
         <v>42</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -11194,38 +11219,56 @@
       <c r="C52" s="14">
         <v>8</v>
       </c>
-      <c r="D52" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="D52" s="14"/>
       <c r="E52" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G52" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="14">
+        <v>8</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="15">
+      <c r="E53" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="15">
         <v>9</v>
       </c>
-      <c r="D53" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="17" t="s">
+      <c r="D54" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G53" s="13"/>
+      <c r="F54" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" s="13"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="2:7">
@@ -11260,15 +11303,15 @@
         <v>37</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C60" s="19">
         <v>2</v>
@@ -11278,13 +11321,13 @@
         <v>37</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G60" s="19"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C61" s="14">
         <v>3</v>
@@ -11294,7 +11337,7 @@
         <v>37</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G61" s="14"/>
     </row>
@@ -11303,43 +11346,61 @@
         <v>44</v>
       </c>
       <c r="C62" s="14">
-        <v>6</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>45</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D62" s="14"/>
       <c r="E62" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G62" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="14">
+        <v>6</v>
+      </c>
+      <c r="D63" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="15">
+      <c r="E63" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="15">
         <v>7</v>
       </c>
-      <c r="D63" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E63" s="17" t="s">
+      <c r="D64" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F63" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G63" s="13"/>
+      <c r="F64" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G64" s="13"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="18"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="2:7">
@@ -11374,15 +11435,15 @@
         <v>37</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C72" s="19">
         <v>2</v>
@@ -11392,13 +11453,13 @@
         <v>37</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G72" s="19"/>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C73" s="14">
         <v>3</v>
@@ -11408,13 +11469,13 @@
         <v>37</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G73" s="14"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="14" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C74" s="14">
         <v>7</v>
@@ -11427,42 +11488,42 @@
         <v>42</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C75" s="14">
         <v>7</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E75" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G75" s="14"/>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C76" s="15">
         <v>8</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G76" s="13"/>
     </row>
@@ -11503,15 +11564,15 @@
         <v>37</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C85" s="19">
         <v>2</v>
@@ -11521,13 +11582,13 @@
         <v>37</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G85" s="19"/>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C86" s="14">
         <v>3</v>
@@ -11537,7 +11598,7 @@
         <v>37</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G86" s="14"/>
     </row>
@@ -11575,7 +11636,7 @@
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="14" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C89" s="14">
         <v>6</v>
@@ -11588,42 +11649,42 @@
         <v>42</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C90" s="14">
         <v>6</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E90" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G90" s="14"/>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C91" s="15">
         <v>7</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G91" s="13"/>
     </row>
@@ -11667,7 +11728,7 @@
         <v>28</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="2:7">
@@ -11690,7 +11751,7 @@
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C99" s="14">
         <v>3</v>
@@ -11703,7 +11764,7 @@
         <v>42</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="2:7">
@@ -11726,7 +11787,7 @@
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="14" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C101" s="14">
         <v>6</v>
@@ -11739,7 +11800,7 @@
         <v>42</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="2:7">
@@ -11749,34 +11810,491 @@
       <c r="C102" s="14">
         <v>6</v>
       </c>
-      <c r="D102" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="D102" s="14"/>
       <c r="E102" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G102" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" s="14">
+        <v>6</v>
+      </c>
+      <c r="D103" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="15">
+      <c r="E103" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G103" s="14"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" s="15">
         <v>7</v>
       </c>
-      <c r="D103" s="16" t="s">
+      <c r="D104" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G104" s="13"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="19">
+        <v>1</v>
+      </c>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" s="19">
+        <v>2</v>
+      </c>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111" s="14">
+        <v>3</v>
+      </c>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F111" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" s="15">
+        <v>4</v>
+      </c>
+      <c r="D112" s="16"/>
+      <c r="E112" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C113" s="14">
+        <v>6</v>
+      </c>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C114" s="14">
+        <v>6</v>
+      </c>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G114" s="14"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C115" s="14">
+        <v>6</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G115" s="14"/>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C116" s="15">
+        <v>7</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G116" s="13"/>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" s="19">
+        <v>1</v>
+      </c>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F121" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G121" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" s="19">
+        <v>2</v>
+      </c>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F122" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G122" s="19"/>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C123" s="14">
+        <v>3</v>
+      </c>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G123" s="14"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" s="15">
+        <v>4</v>
+      </c>
+      <c r="D124" s="16"/>
+      <c r="E124" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G124" s="13"/>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C125" s="19">
+        <v>5</v>
+      </c>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G125" s="19"/>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C126" s="14">
+        <v>6</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G126" s="14"/>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127" s="15">
+        <v>7</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E127" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G127" s="13"/>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" s="19">
+        <v>1</v>
+      </c>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C134" s="19">
+        <v>2</v>
+      </c>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F134" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G134" s="19"/>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" s="14">
+        <v>3</v>
+      </c>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G135" s="14"/>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" s="14">
+        <v>6</v>
+      </c>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G136" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E103" s="17" t="s">
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C137" s="14">
+        <v>6</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G137" s="14"/>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C138" s="15">
+        <v>7</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E138" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F103" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G103" s="13"/>
+      <c r="F138" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G138" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/成績管理システム_ユースケースから画面遷移書.xlsx
+++ b/成績管理システム_ユースケースから画面遷移書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_fri34ys\seiseki_manage_sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{85C23F96-A352-415B-9558-F1443D487C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{692095F7-64C8-466D-8DEF-0D39A642F5C0}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{85C23F96-A352-415B-9558-F1443D487C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA479D07-0A3C-40AA-A679-102B3D88DF12}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="31665" windowHeight="16005" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="83">
   <si>
     <t>各教師</t>
   </si>
@@ -10730,8 +10730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EC819A-7AE1-4C75-BFBB-64D451D6BF2E}">
   <dimension ref="B2:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="E105" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -11974,7 +11974,7 @@
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C114" s="14">
         <v>6</v>
@@ -11986,186 +11986,204 @@
       <c r="F114" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G114" s="14"/>
+      <c r="G114" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="115" spans="2:7">
       <c r="B115" s="14" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C115" s="14">
         <v>6</v>
       </c>
-      <c r="D115" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="D115" s="14"/>
       <c r="E115" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G115" s="14"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C116" s="14">
+        <v>6</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G116" s="14"/>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C116" s="15">
+      <c r="C117" s="15">
         <v>7</v>
       </c>
-      <c r="D116" s="16" t="s">
+      <c r="D117" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E116" s="17" t="s">
+      <c r="E117" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F116" s="13" t="s">
+      <c r="F117" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G116" s="13"/>
+      <c r="G117" s="13"/>
     </row>
-    <row r="118" spans="2:7">
-      <c r="B118" s="18" t="s">
+    <row r="119" spans="2:7">
+      <c r="B119" s="18" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7">
-      <c r="B120" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C121" s="19">
-        <v>1</v>
-      </c>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F121" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G121" s="19" t="s">
-        <v>57</v>
+      <c r="B121" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="19" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C122" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122" s="19"/>
       <c r="E122" s="19" t="s">
         <v>37</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G122" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="G122" s="19" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C123" s="14">
-        <v>3</v>
-      </c>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14" t="s">
+      <c r="B123" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C123" s="19">
+        <v>2</v>
+      </c>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F123" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G123" s="14"/>
+      <c r="F123" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G123" s="19"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C124" s="15">
-        <v>4</v>
-      </c>
-      <c r="D124" s="16"/>
-      <c r="E124" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G124" s="13"/>
+      <c r="B124" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" s="14">
+        <v>3</v>
+      </c>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G124" s="14"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C125" s="19">
-        <v>5</v>
-      </c>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F125" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G125" s="19"/>
+      <c r="B125" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C125" s="15">
+        <v>4</v>
+      </c>
+      <c r="D125" s="16"/>
+      <c r="E125" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G125" s="13"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C126" s="14">
-        <v>6</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E126" s="14" t="s">
+      <c r="B126" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" s="19">
+        <v>5</v>
+      </c>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F126" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G126" s="14"/>
+      <c r="F126" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G126" s="19"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C127" s="14">
+        <v>6</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G127" s="14"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C127" s="15">
+      <c r="C128" s="15">
         <v>7</v>
       </c>
-      <c r="D127" s="16" t="s">
+      <c r="D128" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E127" s="17" t="s">
+      <c r="E128" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F127" s="13" t="s">
+      <c r="F128" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G127" s="13"/>
+      <c r="G128" s="13"/>
     </row>
     <row r="130" spans="2:7">
       <c r="B130" s="11" t="s">

--- a/成績管理システム_ユースケースから画面遷移書.xlsx
+++ b/成績管理システム_ユースケースから画面遷移書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_fri34ys\seiseki_manage_sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{85C23F96-A352-415B-9558-F1443D487C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA479D07-0A3C-40AA-A679-102B3D88DF12}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{85C23F96-A352-415B-9558-F1443D487C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B4B952D-AF28-455C-9127-5C12F4FC5896}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="31665" windowHeight="16005" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="83">
   <si>
     <t>各教師</t>
   </si>
@@ -463,12 +463,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -553,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -587,6 +593,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -10728,10 +10741,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EC819A-7AE1-4C75-BFBB-64D451D6BF2E}">
-  <dimension ref="B2:G138"/>
+  <dimension ref="B2:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E105" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -10747,7 +10760,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C2"/>
@@ -10955,7 +10968,7 @@
       <c r="G14" s="13"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C25"/>
@@ -11134,9 +11147,10 @@
       <c r="G43"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="21" t="s">
         <v>55</v>
       </c>
+      <c r="C46" s="22"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="12" t="s">
@@ -11267,7 +11281,7 @@
       <c r="G54" s="13"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="21" t="s">
         <v>60</v>
       </c>
     </row>
@@ -11399,7 +11413,7 @@
       <c r="B66" s="18"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="21" t="s">
         <v>65</v>
       </c>
     </row>
@@ -11528,7 +11542,7 @@
       <c r="G76" s="13"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -11654,44 +11668,61 @@
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="14" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C90" s="14">
         <v>6</v>
       </c>
-      <c r="D90" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="D90" s="14"/>
       <c r="E90" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F90" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" s="14"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="14">
+        <v>6</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G90" s="14"/>
-    </row>
-    <row r="91" spans="2:7">
-      <c r="B91" s="13" t="s">
+      <c r="G91" s="14"/>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C92" s="15">
         <v>7</v>
       </c>
-      <c r="D91" s="16" t="s">
+      <c r="D92" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="17" t="s">
+      <c r="E92" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F91" s="13" t="s">
+      <c r="F92" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G91" s="13"/>
+      <c r="G92" s="13"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="21" t="s">
         <v>71</v>
       </c>
+      <c r="C94" s="22"/>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="12" t="s">
@@ -11858,7 +11889,7 @@
       <c r="G104" s="13"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="21" t="s">
         <v>76</v>
       </c>
     </row>
@@ -12043,7 +12074,7 @@
       <c r="G117" s="13"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -12151,168 +12182,184 @@
     </row>
     <row r="127" spans="2:7">
       <c r="B127" s="14" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C127" s="14">
         <v>6</v>
       </c>
-      <c r="D127" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="D127" s="14"/>
       <c r="E127" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F127" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G127" s="14"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128" s="14">
+        <v>6</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F128" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G127" s="14"/>
-    </row>
-    <row r="128" spans="2:7">
-      <c r="B128" s="13" t="s">
+      <c r="G128" s="14"/>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C128" s="15">
+      <c r="C129" s="15">
         <v>7</v>
       </c>
-      <c r="D128" s="16" t="s">
+      <c r="D129" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E128" s="17" t="s">
+      <c r="E129" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F128" s="13" t="s">
+      <c r="F129" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G128" s="13"/>
-    </row>
-    <row r="130" spans="2:7">
-      <c r="B130" s="11" t="s">
+      <c r="G129" s="13"/>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="2:7">
-      <c r="B132" s="12" t="s">
+    <row r="134" spans="2:7">
+      <c r="B134" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="C134" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D134" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E132" s="12" t="s">
+      <c r="E134" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F132" s="12" t="s">
+      <c r="F134" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G132" s="12" t="s">
+      <c r="G134" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="2:7">
-      <c r="B133" s="19" t="s">
+    <row r="135" spans="2:7">
+      <c r="B135" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C133" s="19">
+      <c r="C135" s="19">
         <v>1</v>
       </c>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19" t="s">
+      <c r="D135" s="19"/>
+      <c r="E135" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F133" s="19" t="s">
+      <c r="F135" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G133" s="19" t="s">
+      <c r="G135" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="134" spans="2:7">
-      <c r="B134" s="19" t="s">
+    <row r="136" spans="2:7">
+      <c r="B136" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C134" s="19">
+      <c r="C136" s="19">
         <v>2</v>
       </c>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19" t="s">
+      <c r="D136" s="19"/>
+      <c r="E136" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F134" s="19" t="s">
+      <c r="F136" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G134" s="19"/>
-    </row>
-    <row r="135" spans="2:7">
-      <c r="B135" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C135" s="14">
-        <v>3</v>
-      </c>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G135" s="14"/>
-    </row>
-    <row r="136" spans="2:7">
-      <c r="B136" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C136" s="14">
-        <v>6</v>
-      </c>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F136" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G136" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="G136" s="19"/>
     </row>
     <row r="137" spans="2:7">
       <c r="B137" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C137" s="14">
-        <v>6</v>
-      </c>
-      <c r="D137" s="14" t="s">
-        <v>47</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D137" s="14"/>
       <c r="E137" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F137" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G137" s="14"/>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C138" s="14">
+        <v>6</v>
+      </c>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C139" s="14">
+        <v>6</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F139" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G137" s="14"/>
-    </row>
-    <row r="138" spans="2:7">
-      <c r="B138" s="13" t="s">
+      <c r="G139" s="14"/>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C138" s="15">
+      <c r="C140" s="15">
         <v>7</v>
       </c>
-      <c r="D138" s="16" t="s">
+      <c r="D140" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E138" s="17" t="s">
+      <c r="E140" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F138" s="13" t="s">
+      <c r="F140" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G138" s="13"/>
+      <c r="G140" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/成績管理システム_ユースケースから画面遷移書.xlsx
+++ b/成績管理システム_ユースケースから画面遷移書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_fri34ys\seiseki_manage_sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{85C23F96-A352-415B-9558-F1443D487C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B4B952D-AF28-455C-9127-5C12F4FC5896}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{85C23F96-A352-415B-9558-F1443D487C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10A58D53-E9ED-4F7B-AA99-448AE4351DD1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="31665" windowHeight="16005" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="82">
   <si>
     <t>各教師</t>
   </si>
@@ -52,10 +52,6 @@
   </si>
   <si>
     <t>管理者</t>
-  </si>
-  <si>
-    <t>scoresテーブル、class_id追加未</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>生徒</t>
@@ -3828,23 +3824,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DE688E-C95E-B613-4402-D95545FACE06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ACE24E7-847E-2B51-DA65-88F8FF097715}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3854,14 +3850,15 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="17145" t="14400" r="27810" b="30560"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="10001250"/>
-          <a:ext cx="4572000" cy="3486150"/>
+          <a:off x="9010650" y="9896475"/>
+          <a:ext cx="2514600" cy="1419225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10587,20 +10584,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA13E3A-8C7A-44F7-B000-4D19323B9E80}">
-  <dimension ref="M59"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="L42" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="Y55" sqref="Y55"/>
+    <sheetView topLeftCell="J1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="59" spans="13:13">
-      <c r="M59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10623,29 +10614,29 @@
   <sheetData>
     <row r="2" spans="2:14" ht="76.5">
       <c r="B2" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="9"/>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:14">
       <c r="J3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="76.5">
       <c r="B11" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="6:21">
       <c r="F17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="6:21">
@@ -10653,13 +10644,13 @@
     </row>
     <row r="19" spans="6:21">
       <c r="J19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="Q19" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="6:21">
@@ -10667,17 +10658,17 @@
     </row>
     <row r="33" spans="2:19" ht="76.5">
       <c r="B33" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="2:19">
       <c r="F37" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="2:19">
       <c r="M39" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:19">
@@ -10686,7 +10677,7 @@
     </row>
     <row r="44" spans="2:19">
       <c r="M44" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="2:19">
@@ -10719,17 +10710,17 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -10761,7 +10752,7 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -10779,197 +10770,197 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="14">
         <v>3</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="14">
         <v>4</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="14">
         <v>6</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="13">
         <v>7</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="14">
         <v>8</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="14">
         <v>8</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="14">
         <v>8</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="13">
         <v>9</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="G14" s="13"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -10987,127 +10978,127 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="E27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="F27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="G27" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="13">
         <v>1</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="G28" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="14">
         <v>3</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="14">
         <v>4</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="14">
         <v>8</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="14">
         <v>8</v>
       </c>
       <c r="D32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="15">
         <v>9</v>
       </c>
       <c r="D33" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="G33" s="13"/>
     </row>
@@ -11148,264 +11139,264 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="22"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="D48" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="E48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="F48" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="G48" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C49" s="19">
         <v>1</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F49" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="19">
         <v>2</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="14">
         <v>8</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="14">
         <v>8</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" s="14">
         <v>8</v>
       </c>
       <c r="D53" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="G53" s="14"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="15">
         <v>9</v>
       </c>
       <c r="D54" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="G54" s="13"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="D58" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="E58" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="F58" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="G58" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59" s="19">
         <v>1</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F59" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="19">
         <v>2</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G60" s="19"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="14">
         <v>3</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G61" s="14"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" s="14">
         <v>8</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C63" s="14">
         <v>6</v>
       </c>
       <c r="D63" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="G63" s="14"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" s="15">
         <v>7</v>
       </c>
       <c r="D64" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="G64" s="13"/>
     </row>
@@ -11414,950 +11405,950 @@
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="D70" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="E70" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="F70" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="G70" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C71" s="19">
         <v>1</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F71" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="19">
         <v>2</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G72" s="19"/>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C73" s="14">
         <v>3</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G73" s="14"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C74" s="14">
         <v>7</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C75" s="14">
         <v>7</v>
       </c>
       <c r="D75" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="G75" s="14"/>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C76" s="15">
         <v>8</v>
       </c>
       <c r="D76" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="G76" s="13"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="D83" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="E83" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="F83" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F83" s="12" t="s">
+      <c r="G83" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C84" s="19">
         <v>1</v>
       </c>
       <c r="D84" s="19"/>
       <c r="E84" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F84" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G84" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="G84" s="19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C85" s="19">
         <v>2</v>
       </c>
       <c r="D85" s="19"/>
       <c r="E85" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G85" s="19"/>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C86" s="14">
         <v>3</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G86" s="14"/>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C87" s="15">
         <v>4</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G87" s="13"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C88" s="19">
         <v>5</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G88" s="19"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C89" s="14">
         <v>6</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C90" s="14">
         <v>6</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G90" s="14"/>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C91" s="14">
         <v>6</v>
       </c>
       <c r="D91" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F91" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="G91" s="14"/>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C92" s="15">
         <v>7</v>
       </c>
       <c r="D92" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="G92" s="13"/>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C94" s="22"/>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="D96" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D96" s="12" t="s">
+      <c r="E96" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E96" s="12" t="s">
+      <c r="F96" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F96" s="12" t="s">
+      <c r="G96" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C97" s="19">
         <v>1</v>
       </c>
       <c r="D97" s="19"/>
       <c r="E97" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C98" s="19">
         <v>2</v>
       </c>
       <c r="D98" s="19"/>
       <c r="E98" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C99" s="14">
         <v>3</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="2:7">
       <c r="B100" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C100" s="15">
         <v>4</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F100" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G100" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C101" s="14">
         <v>6</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C102" s="14">
         <v>6</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="2:7">
       <c r="B103" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C103" s="14">
         <v>6</v>
       </c>
       <c r="D103" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="G103" s="14"/>
     </row>
     <row r="104" spans="2:7">
       <c r="B104" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C104" s="15">
         <v>7</v>
       </c>
       <c r="D104" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F104" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E104" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="G104" s="13"/>
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="D108" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D108" s="12" t="s">
+      <c r="E108" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="F108" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F108" s="12" t="s">
+      <c r="G108" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="G108" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="109" spans="2:7">
       <c r="B109" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C109" s="19">
         <v>1</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G109" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C110" s="19">
         <v>2</v>
       </c>
       <c r="D110" s="19"/>
       <c r="E110" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="2:7">
       <c r="B111" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C111" s="14">
         <v>3</v>
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C112" s="15">
         <v>4</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F112" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G112" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="G112" s="13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="113" spans="2:7">
       <c r="B113" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C113" s="14">
         <v>6</v>
       </c>
       <c r="D113" s="14"/>
       <c r="E113" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C114" s="14">
         <v>6</v>
       </c>
       <c r="D114" s="14"/>
       <c r="E114" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="2:7">
       <c r="B115" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C115" s="14">
         <v>6</v>
       </c>
       <c r="D115" s="14"/>
       <c r="E115" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G115" s="14"/>
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C116" s="14">
         <v>6</v>
       </c>
       <c r="D116" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="E116" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="G116" s="14"/>
     </row>
     <row r="117" spans="2:7">
       <c r="B117" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C117" s="15">
         <v>7</v>
       </c>
       <c r="D117" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E117" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F117" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="G117" s="13"/>
     </row>
     <row r="119" spans="2:7">
       <c r="B119" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="2:7">
       <c r="B121" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="D121" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D121" s="12" t="s">
+      <c r="E121" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E121" s="12" t="s">
+      <c r="F121" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F121" s="12" t="s">
+      <c r="G121" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C122" s="19">
         <v>1</v>
       </c>
       <c r="D122" s="19"/>
       <c r="E122" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F122" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G122" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="G122" s="19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="123" spans="2:7">
       <c r="B123" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C123" s="19">
         <v>2</v>
       </c>
       <c r="D123" s="19"/>
       <c r="E123" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G123" s="19"/>
     </row>
     <row r="124" spans="2:7">
       <c r="B124" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C124" s="14">
         <v>3</v>
       </c>
       <c r="D124" s="14"/>
       <c r="E124" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G124" s="14"/>
     </row>
     <row r="125" spans="2:7">
       <c r="B125" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C125" s="15">
         <v>4</v>
       </c>
       <c r="D125" s="16"/>
       <c r="E125" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="2:7">
       <c r="B126" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C126" s="19">
         <v>5</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G126" s="19"/>
     </row>
     <row r="127" spans="2:7">
       <c r="B127" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C127" s="14">
         <v>6</v>
       </c>
       <c r="D127" s="14"/>
       <c r="E127" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G127" s="14"/>
     </row>
     <row r="128" spans="2:7">
       <c r="B128" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C128" s="14">
         <v>6</v>
       </c>
       <c r="D128" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F128" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="G128" s="14"/>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C129" s="15">
         <v>7</v>
       </c>
       <c r="D129" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E129" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F129" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E129" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F129" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="G129" s="13"/>
     </row>
     <row r="132" spans="2:7">
       <c r="B132" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="2:7">
       <c r="B134" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="D134" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D134" s="12" t="s">
+      <c r="E134" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E134" s="12" t="s">
+      <c r="F134" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F134" s="12" t="s">
+      <c r="G134" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="G134" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="135" spans="2:7">
       <c r="B135" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C135" s="19">
         <v>1</v>
       </c>
       <c r="D135" s="19"/>
       <c r="E135" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F135" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G135" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="G135" s="19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="136" spans="2:7">
       <c r="B136" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C136" s="19">
         <v>2</v>
       </c>
       <c r="D136" s="19"/>
       <c r="E136" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G136" s="19"/>
     </row>
     <row r="137" spans="2:7">
       <c r="B137" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C137" s="14">
         <v>3</v>
       </c>
       <c r="D137" s="14"/>
       <c r="E137" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G137" s="14"/>
     </row>
     <row r="138" spans="2:7">
       <c r="B138" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C138" s="14">
         <v>6</v>
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="2:7">
       <c r="B139" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C139" s="14">
         <v>6</v>
       </c>
       <c r="D139" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F139" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="E139" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F139" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="G139" s="14"/>
     </row>
     <row r="140" spans="2:7">
       <c r="B140" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C140" s="15">
         <v>7</v>
       </c>
       <c r="D140" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F140" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E140" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F140" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="G140" s="13"/>
     </row>

--- a/成績管理システム_ユースケースから画面遷移書.xlsx
+++ b/成績管理システム_ユースケースから画面遷移書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_fri34ys\seiseki_manage_sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{85C23F96-A352-415B-9558-F1443D487C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10A58D53-E9ED-4F7B-AA99-448AE4351DD1}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{85C23F96-A352-415B-9558-F1443D487C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E493790-108A-4B86-B829-9FED7F229DE2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31665" windowHeight="16005" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31665" windowHeight="16005" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ユースケース図" sheetId="1" r:id="rId1"/>
@@ -10219,6 +10219,241 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="角丸四角形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F065DD1-8FC5-4B08-924E-9E73E9983B25}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{86652895-3BC2-065F-1968-5FD6AF029759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12496800" y="15163800"/>
+          <a:ext cx="1276350" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>教科修正</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>202746</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35157B8E-7C88-4926-AC9A-45995DDE472F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8F065DD1-8FC5-4B08-924E-9E73E9983B25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="68" idx="3"/>
+          <a:endCxn id="50" idx="1"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9AFA0A85-0807-4650-A015-60F242306258}" end="{8F065DD1-8FC5-4B08-924E-9E73E9983B25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11764736" y="15416213"/>
+          <a:ext cx="732064" cy="83683"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10603,7 +10838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3A7CDF-40EE-4E2B-942F-AAE76AE5F7BE}">
   <dimension ref="B2:U54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AD33" sqref="AD33"/>
     </sheetView>
   </sheetViews>
@@ -10734,7 +10969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EC819A-7AE1-4C75-BFBB-64D451D6BF2E}">
   <dimension ref="B2:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
